--- a/natmiOut/OldD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Flt3l-Flt3.xlsx
@@ -531,34 +531,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.066613808698239</v>
+        <v>9.352362000000001</v>
       </c>
       <c r="H2">
-        <v>9.066613808698239</v>
+        <v>28.057086</v>
       </c>
       <c r="I2">
-        <v>0.4007830278874849</v>
+        <v>0.3814309586590714</v>
       </c>
       <c r="J2">
-        <v>0.4007830278874849</v>
+        <v>0.3814309586590714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57422166125117</v>
+        <v>1.899038333333333</v>
       </c>
       <c r="N2">
-        <v>1.57422166125117</v>
+        <v>5.697115</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>14.27285985185174</v>
+        <v>17.76049394521</v>
       </c>
       <c r="R2">
-        <v>14.27285985185174</v>
+        <v>159.84444550689</v>
       </c>
       <c r="S2">
-        <v>0.4007830278874849</v>
+        <v>0.3814309586590714</v>
       </c>
       <c r="T2">
-        <v>0.4007830278874849</v>
+        <v>0.3814309586590714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.738184766905871</v>
+        <v>8.765748333333333</v>
       </c>
       <c r="H3">
-        <v>8.738184766905871</v>
+        <v>26.297245</v>
       </c>
       <c r="I3">
-        <v>0.3862650624603648</v>
+        <v>0.3575062417544884</v>
       </c>
       <c r="J3">
-        <v>0.3862650624603648</v>
+        <v>0.3575062417544883</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.57422166125117</v>
+        <v>1.899038333333333</v>
       </c>
       <c r="N3">
-        <v>1.57422166125117</v>
+        <v>5.697115</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>13.75583974007823</v>
+        <v>16.64649210535278</v>
       </c>
       <c r="R3">
-        <v>13.75583974007823</v>
+        <v>149.818428948175</v>
       </c>
       <c r="S3">
-        <v>0.3862650624603648</v>
+        <v>0.3575062417544884</v>
       </c>
       <c r="T3">
-        <v>0.3862650624603648</v>
+        <v>0.3575062417544883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.8309608118849</v>
+        <v>3.331995666666666</v>
       </c>
       <c r="H4">
-        <v>2.8309608118849</v>
+        <v>9.995987</v>
       </c>
       <c r="I4">
-        <v>0.125140550811764</v>
+        <v>0.1358936171829681</v>
       </c>
       <c r="J4">
-        <v>0.125140550811764</v>
+        <v>0.1358936171829681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.57422166125117</v>
+        <v>1.899038333333333</v>
       </c>
       <c r="N4">
-        <v>1.57422166125117</v>
+        <v>5.697115</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.456559832222408</v>
+        <v>6.327587497500555</v>
       </c>
       <c r="R4">
-        <v>4.456559832222408</v>
+        <v>56.948287477505</v>
       </c>
       <c r="S4">
-        <v>0.125140550811764</v>
+        <v>0.1358936171829681</v>
       </c>
       <c r="T4">
-        <v>0.125140550811764</v>
+        <v>0.1358936171829681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.98649050290202</v>
+        <v>3.069041666666667</v>
       </c>
       <c r="H5">
-        <v>1.98649050290202</v>
+        <v>9.207125000000001</v>
       </c>
       <c r="I5">
-        <v>0.08781135884038646</v>
+        <v>0.1251691824034721</v>
       </c>
       <c r="J5">
-        <v>0.08781135884038646</v>
+        <v>0.1251691824034721</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.57422166125117</v>
+        <v>1.899038333333333</v>
       </c>
       <c r="N5">
-        <v>1.57422166125117</v>
+        <v>5.697115</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.12717637953809</v>
+        <v>5.828227771597223</v>
       </c>
       <c r="R5">
-        <v>3.12717637953809</v>
+        <v>52.45404994437501</v>
       </c>
       <c r="S5">
-        <v>0.08781135884038646</v>
+        <v>0.1251691824034721</v>
       </c>
       <c r="T5">
-        <v>0.08781135884038646</v>
+        <v>0.1251691824034721</v>
       </c>
     </row>
   </sheetData>
